--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -10455,11 +10455,16 @@
   <sheetPr/>
   <dimension ref="A1:U502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A461" workbookViewId="0">
-      <selection activeCell="X498" sqref="X498"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="5" max="5" width="31.625" customWidth="1"/>
+    <col min="10" max="10" width="26.625" customWidth="1"/>
+    <col min="16" max="16" width="29.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" t="s">
